--- a/test/expected/mutate_image.xlsx
+++ b/test/expected/mutate_image.xlsx
@@ -133,6 +133,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="476250" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
